--- a/Data/Call_CRP.xlsx
+++ b/Data/Call_CRP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>FFTR</t>
   </si>
@@ -49,9 +49,6 @@
     <t>CRP12</t>
   </si>
   <si>
-    <t>CRP13</t>
-  </si>
-  <si>
     <t>CRP15</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
     <t>CRP43</t>
   </si>
   <si>
+    <t>CRP44</t>
+  </si>
+  <si>
     <t>CRP45</t>
   </si>
   <si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t>CRP63</t>
-  </si>
-  <si>
-    <t>CRP64</t>
-  </si>
-  <si>
-    <t>CRP65</t>
   </si>
 </sst>
 </file>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,19 +531,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -566,31 +560,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -598,31 +592,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -630,31 +624,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -662,31 +656,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -694,31 +688,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -726,13 +720,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -741,16 +735,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -758,28 +752,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -790,31 +784,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -822,31 +816,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -854,31 +848,31 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
         <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -886,31 +880,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
       <c r="J13">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -918,31 +912,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
         <v>11</v>
       </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
       <c r="J14">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -950,31 +944,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -982,31 +976,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1014,31 +1008,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1049,28 +1043,28 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1078,31 +1072,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1110,31 +1104,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1142,31 +1136,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1174,31 +1168,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1206,31 +1200,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1238,31 +1232,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1270,31 +1264,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1302,31 +1296,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
         <v>8</v>
       </c>
-      <c r="H26">
-        <v>13</v>
-      </c>
       <c r="I26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1334,31 +1328,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1366,31 +1360,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1401,92 +1395,28 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>9</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
